--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Fgfrl1</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10642587678748</v>
+        <v>1.151350666666667</v>
       </c>
       <c r="N2">
-        <v>1.10642587678748</v>
+        <v>3.454052</v>
       </c>
       <c r="O2">
-        <v>0.08881737916859481</v>
+        <v>0.08771067958196711</v>
       </c>
       <c r="P2">
-        <v>0.08881737916859481</v>
+        <v>0.08771067958196713</v>
       </c>
       <c r="Q2">
-        <v>8.136253106051401</v>
+        <v>1.024347861111556</v>
       </c>
       <c r="R2">
-        <v>8.136253106051401</v>
+        <v>9.219130750004</v>
       </c>
       <c r="S2">
-        <v>0.07689449544190628</v>
+        <v>0.008180558405370365</v>
       </c>
       <c r="T2">
-        <v>0.07689449544190628</v>
+        <v>0.008180558405370365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2788252170011</v>
+        <v>10.367769</v>
       </c>
       <c r="N3">
-        <v>10.2788252170011</v>
+        <v>31.103307</v>
       </c>
       <c r="O3">
-        <v>0.8251237935222802</v>
+        <v>0.7898237184085691</v>
       </c>
       <c r="P3">
-        <v>0.8251237935222802</v>
+        <v>0.7898237184085692</v>
       </c>
       <c r="Q3">
-        <v>75.58673866270063</v>
+        <v>9.224124593071002</v>
       </c>
       <c r="R3">
-        <v>75.58673866270063</v>
+        <v>83.01712133763901</v>
       </c>
       <c r="S3">
-        <v>0.7143588155148128</v>
+        <v>0.07366490704646743</v>
       </c>
       <c r="T3">
-        <v>0.7143588155148128</v>
+        <v>0.07366490704646743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.07206173332425</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N4">
-        <v>1.07206173332425</v>
+        <v>0.396731</v>
       </c>
       <c r="O4">
-        <v>0.08605882730912494</v>
+        <v>0.01007441278279348</v>
       </c>
       <c r="P4">
-        <v>0.08605882730912494</v>
+        <v>0.01007441278279349</v>
       </c>
       <c r="Q4">
-        <v>7.88355170521169</v>
+        <v>0.1176561763652222</v>
       </c>
       <c r="R4">
-        <v>7.88355170521169</v>
+        <v>1.058905587287</v>
       </c>
       <c r="S4">
-        <v>0.07450625278748589</v>
+        <v>0.0009396155925622979</v>
       </c>
       <c r="T4">
-        <v>0.07450625278748589</v>
+        <v>0.000939615592562298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.277310786559931</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H5">
-        <v>0.277310786559931</v>
+        <v>2.669077</v>
       </c>
       <c r="I5">
-        <v>0.03264840238929902</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J5">
-        <v>0.03264840238929902</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.10642587678748</v>
+        <v>0.3745466666666666</v>
       </c>
       <c r="N5">
-        <v>1.10642587678748</v>
+        <v>1.12364</v>
       </c>
       <c r="O5">
-        <v>0.08881737916859481</v>
+        <v>0.02853322069426908</v>
       </c>
       <c r="P5">
-        <v>0.08881737916859481</v>
+        <v>0.02853322069426909</v>
       </c>
       <c r="Q5">
-        <v>0.3068238301621974</v>
+        <v>0.3332312978088889</v>
       </c>
       <c r="R5">
-        <v>0.3068238301621974</v>
+        <v>2.99908168028</v>
       </c>
       <c r="S5">
-        <v>0.002899745534259228</v>
+        <v>0.002661223006083972</v>
       </c>
       <c r="T5">
-        <v>0.002899745534259228</v>
+        <v>0.002661223006083972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.277310786559931</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H6">
-        <v>0.277310786559931</v>
+        <v>2.669077</v>
       </c>
       <c r="I6">
-        <v>0.03264840238929902</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J6">
-        <v>0.03264840238929902</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2788252170011</v>
+        <v>1.100777333333333</v>
       </c>
       <c r="N6">
-        <v>10.2788252170011</v>
+        <v>3.302332</v>
       </c>
       <c r="O6">
-        <v>0.8251237935222802</v>
+        <v>0.08385796853240096</v>
       </c>
       <c r="P6">
-        <v>0.8251237935222802</v>
+        <v>0.08385796853240098</v>
       </c>
       <c r="Q6">
-        <v>2.850429105838629</v>
+        <v>0.9793531541737778</v>
       </c>
       <c r="R6">
-        <v>2.850429105838629</v>
+        <v>8.814178387564001</v>
       </c>
       <c r="S6">
-        <v>0.02693897363190028</v>
+        <v>0.00782122556346098</v>
       </c>
       <c r="T6">
-        <v>0.02693897363190028</v>
+        <v>0.00782122556346098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.07206173332425</v>
+        <v>1.151350666666667</v>
       </c>
       <c r="N7">
-        <v>1.07206173332425</v>
+        <v>3.454052</v>
       </c>
       <c r="O7">
-        <v>0.08605882730912494</v>
+        <v>0.08771067958196711</v>
       </c>
       <c r="P7">
-        <v>0.08605882730912494</v>
+        <v>0.08771067958196713</v>
       </c>
       <c r="Q7">
-        <v>0.2972942825089507</v>
+        <v>8.541387028720001</v>
       </c>
       <c r="R7">
-        <v>0.2972942825089507</v>
+        <v>76.87248325848</v>
       </c>
       <c r="S7">
-        <v>0.002809683223139506</v>
+        <v>0.06821248728483197</v>
       </c>
       <c r="T7">
-        <v>0.002809683223139506</v>
+        <v>0.06821248728483197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.862907975827176</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.862907975827176</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J8">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.10642587678748</v>
+        <v>10.367769</v>
       </c>
       <c r="N8">
-        <v>1.10642587678748</v>
+        <v>31.103307</v>
       </c>
       <c r="O8">
-        <v>0.08881737916859481</v>
+        <v>0.7898237184085691</v>
       </c>
       <c r="P8">
-        <v>0.08881737916859481</v>
+        <v>0.7898237184085692</v>
       </c>
       <c r="Q8">
-        <v>0.9547437137414928</v>
+        <v>76.91412374802002</v>
       </c>
       <c r="R8">
-        <v>0.9547437137414928</v>
+        <v>692.2271137321801</v>
       </c>
       <c r="S8">
-        <v>0.009023138192429298</v>
+        <v>0.6142449312441518</v>
       </c>
       <c r="T8">
-        <v>0.009023138192429298</v>
+        <v>0.6142449312441519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.862907975827176</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.862907975827176</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J9">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>10.2788252170011</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N9">
-        <v>10.2788252170011</v>
+        <v>0.396731</v>
       </c>
       <c r="O9">
-        <v>0.8251237935222802</v>
+        <v>0.01007441278279348</v>
       </c>
       <c r="P9">
-        <v>0.8251237935222802</v>
+        <v>0.01007441278279349</v>
       </c>
       <c r="Q9">
-        <v>8.869680261883753</v>
+        <v>0.9810602206600002</v>
       </c>
       <c r="R9">
-        <v>8.869680261883753</v>
+        <v>8.829541985940001</v>
       </c>
       <c r="S9">
-        <v>0.08382600437556713</v>
+        <v>0.007834858390377062</v>
       </c>
       <c r="T9">
-        <v>0.08382600437556713</v>
+        <v>0.007834858390377064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.418580000000001</v>
+      </c>
+      <c r="H10">
+        <v>22.25574</v>
+      </c>
+      <c r="I10">
+        <v>0.777698766101638</v>
+      </c>
+      <c r="J10">
+        <v>0.777698766101638</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3745466666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.12364</v>
+      </c>
+      <c r="O10">
+        <v>0.02853322069426908</v>
+      </c>
+      <c r="P10">
+        <v>0.02853322069426909</v>
+      </c>
+      <c r="Q10">
+        <v>2.7786044104</v>
+      </c>
+      <c r="R10">
+        <v>25.0074396936</v>
+      </c>
+      <c r="S10">
+        <v>0.02219025052683879</v>
+      </c>
+      <c r="T10">
+        <v>0.0221902505268388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.418580000000001</v>
+      </c>
+      <c r="H11">
+        <v>22.25574</v>
+      </c>
+      <c r="I11">
+        <v>0.777698766101638</v>
+      </c>
+      <c r="J11">
+        <v>0.777698766101638</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.100777333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.302332</v>
+      </c>
+      <c r="O11">
+        <v>0.08385796853240096</v>
+      </c>
+      <c r="P11">
+        <v>0.08385796853240098</v>
+      </c>
+      <c r="Q11">
+        <v>8.166204709520001</v>
+      </c>
+      <c r="R11">
+        <v>73.49584238568001</v>
+      </c>
+      <c r="S11">
+        <v>0.06521623865543821</v>
+      </c>
+      <c r="T11">
+        <v>0.06521623865543823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.298413</v>
+      </c>
+      <c r="H12">
+        <v>0.895239</v>
+      </c>
+      <c r="I12">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J12">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.151350666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.454052</v>
+      </c>
+      <c r="O12">
+        <v>0.08771067958196711</v>
+      </c>
+      <c r="P12">
+        <v>0.08771067958196713</v>
+      </c>
+      <c r="Q12">
+        <v>0.343578006492</v>
+      </c>
+      <c r="R12">
+        <v>3.092202058428</v>
+      </c>
+      <c r="S12">
+        <v>0.002743852997221645</v>
+      </c>
+      <c r="T12">
+        <v>0.002743852997221647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.298413</v>
+      </c>
+      <c r="H13">
+        <v>0.895239</v>
+      </c>
+      <c r="I13">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J13">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.367769</v>
+      </c>
+      <c r="N13">
+        <v>31.103307</v>
+      </c>
+      <c r="O13">
+        <v>0.7898237184085691</v>
+      </c>
+      <c r="P13">
+        <v>0.7898237184085692</v>
+      </c>
+      <c r="Q13">
+        <v>3.093877050597</v>
+      </c>
+      <c r="R13">
+        <v>27.844893455373</v>
+      </c>
+      <c r="S13">
+        <v>0.02470805365276927</v>
+      </c>
+      <c r="T13">
+        <v>0.02470805365276928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.298413</v>
+      </c>
+      <c r="H14">
+        <v>0.895239</v>
+      </c>
+      <c r="I14">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J14">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1322436666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.396731</v>
+      </c>
+      <c r="O14">
+        <v>0.01007441278279348</v>
+      </c>
+      <c r="P14">
+        <v>0.01007441278279349</v>
+      </c>
+      <c r="Q14">
+        <v>0.039463229301</v>
+      </c>
+      <c r="R14">
+        <v>0.355169063709</v>
+      </c>
+      <c r="S14">
+        <v>0.0003151578330148882</v>
+      </c>
+      <c r="T14">
+        <v>0.0003151578330148883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.298413</v>
+      </c>
+      <c r="H15">
+        <v>0.895239</v>
+      </c>
+      <c r="I15">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J15">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3745466666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.12364</v>
+      </c>
+      <c r="O15">
+        <v>0.02853322069426908</v>
+      </c>
+      <c r="P15">
+        <v>0.02853322069426909</v>
+      </c>
+      <c r="Q15">
+        <v>0.11176959444</v>
+      </c>
+      <c r="R15">
+        <v>1.00592634996</v>
+      </c>
+      <c r="S15">
+        <v>0.0008926046804732903</v>
+      </c>
+      <c r="T15">
+        <v>0.0008926046804732907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.298413</v>
+      </c>
+      <c r="H16">
+        <v>0.895239</v>
+      </c>
+      <c r="I16">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J16">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.100777333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.302332</v>
+      </c>
+      <c r="O16">
+        <v>0.08385796853240096</v>
+      </c>
+      <c r="P16">
+        <v>0.08385796853240098</v>
+      </c>
+      <c r="Q16">
+        <v>0.328486266372</v>
+      </c>
+      <c r="R16">
+        <v>2.956376397348</v>
+      </c>
+      <c r="S16">
+        <v>0.002623328645897905</v>
+      </c>
+      <c r="T16">
+        <v>0.002623328645897906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.797374</v>
+      </c>
+      <c r="I17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.151350666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.454052</v>
+      </c>
+      <c r="O17">
+        <v>0.08771067958196711</v>
+      </c>
+      <c r="P17">
+        <v>0.08771067958196713</v>
+      </c>
+      <c r="Q17">
+        <v>1.073586139938667</v>
+      </c>
+      <c r="R17">
+        <v>9.662275259448002</v>
+      </c>
+      <c r="S17">
+        <v>0.008573780894543139</v>
+      </c>
+      <c r="T17">
+        <v>0.008573780894543141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.797374</v>
+      </c>
+      <c r="I18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.367769</v>
+      </c>
+      <c r="N18">
+        <v>31.103307</v>
+      </c>
+      <c r="O18">
+        <v>0.7898237184085691</v>
+      </c>
+      <c r="P18">
+        <v>0.7898237184085692</v>
+      </c>
+      <c r="Q18">
+        <v>9.667509146202002</v>
+      </c>
+      <c r="R18">
+        <v>87.00758231581801</v>
+      </c>
+      <c r="S18">
+        <v>0.07720582646518058</v>
+      </c>
+      <c r="T18">
+        <v>0.07720582646518059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H10">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I10">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J10">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.07206173332425</v>
-      </c>
-      <c r="N10">
-        <v>1.07206173332425</v>
-      </c>
-      <c r="O10">
-        <v>0.08605882730912494</v>
-      </c>
-      <c r="P10">
-        <v>0.08605882730912494</v>
-      </c>
-      <c r="Q10">
-        <v>0.9250906202646023</v>
-      </c>
-      <c r="R10">
-        <v>0.9250906202646023</v>
-      </c>
-      <c r="S10">
-        <v>0.008742891298499551</v>
-      </c>
-      <c r="T10">
-        <v>0.008742891298499551</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.797374</v>
+      </c>
+      <c r="I19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1322436666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.396731</v>
+      </c>
+      <c r="O19">
+        <v>0.01007441278279348</v>
+      </c>
+      <c r="P19">
+        <v>0.01007441278279349</v>
+      </c>
+      <c r="Q19">
+        <v>0.1233116649326667</v>
+      </c>
+      <c r="R19">
+        <v>1.109804984394</v>
+      </c>
+      <c r="S19">
+        <v>0.0009847809668392354</v>
+      </c>
+      <c r="T19">
+        <v>0.0009847809668392356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.797374</v>
+      </c>
+      <c r="I20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.3745466666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.12364</v>
+      </c>
+      <c r="O20">
+        <v>0.02853322069426908</v>
+      </c>
+      <c r="P20">
+        <v>0.02853322069426909</v>
+      </c>
+      <c r="Q20">
+        <v>0.3492490357066667</v>
+      </c>
+      <c r="R20">
+        <v>3.143241321360001</v>
+      </c>
+      <c r="S20">
+        <v>0.00278914248087303</v>
+      </c>
+      <c r="T20">
+        <v>0.002789142480873031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.797374</v>
+      </c>
+      <c r="I21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.100777333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.302332</v>
+      </c>
+      <c r="O21">
+        <v>0.08385796853240096</v>
+      </c>
+      <c r="P21">
+        <v>0.08385796853240098</v>
+      </c>
+      <c r="Q21">
+        <v>1.026428630685333</v>
+      </c>
+      <c r="R21">
+        <v>9.237857676168002</v>
+      </c>
+      <c r="S21">
+        <v>0.008197175667603855</v>
+      </c>
+      <c r="T21">
+        <v>0.008197175667603857</v>
       </c>
     </row>
   </sheetData>
